--- a/南ひだ/買上材明細書印刷用_南飛騨.xlsx
+++ b/南ひだ/買上材明細書印刷用_南飛騨.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GifuForest_南ひだ\ExcelM_開発中\下呂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D3116B-FABD-4FAC-92BD-93C2C671AD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290E9A75-19BD-4FE0-B496-0F391595B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="720" windowWidth="19590" windowHeight="10800" xr2:uid="{7A59FB25-FC69-4496-9E90-84EF8FFD24FF}"/>
   </bookViews>
@@ -343,13 +343,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>電話 0576-26-3202 / FAX 0576-26-2235</t>
-    <rPh sb="0" eb="2">
-      <t>デンワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>運搬費</t>
     <rPh sb="0" eb="2">
       <t>ウンパン</t>
@@ -400,42 +393,42 @@
     <rPh sb="34" eb="35">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>お知らせ</t>
     <rPh sb="1" eb="2">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>普通1354381</t>
     <rPh sb="0" eb="2">
       <t>フツウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>普通0042733</t>
     <rPh sb="0" eb="2">
       <t>フツウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>普通0531124</t>
     <rPh sb="0" eb="2">
       <t>フツウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>普通0119398</t>
     <rPh sb="0" eb="2">
       <t>フツウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>口座名 南ひだ森林組合 代表理事　組合長　細江　広仲</t>
@@ -445,7 +438,7 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>取引銀行</t>
@@ -455,7 +448,7 @@
     <rPh sb="2" eb="4">
       <t>ギンコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>益田信用組合 竹原支店</t>
@@ -474,7 +467,7 @@
     <rPh sb="9" eb="11">
       <t>シテン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>関信用金庫　金山支店</t>
@@ -493,7 +486,7 @@
     <rPh sb="8" eb="10">
       <t>シテン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>飛 騨 農 協  竹原支店</t>
@@ -515,7 +508,7 @@
     <rPh sb="11" eb="13">
       <t>シテン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">十 六 銀 行    下呂支店 </t>
@@ -537,7 +530,7 @@
     <rPh sb="13" eb="15">
       <t>シテン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>御買上材明細書兼請求書　</t>
@@ -570,6 +563,10 @@
   </si>
   <si>
     <t>※材積(Ａ)は末口径が14cm以上、材積(Ｂ)は13㎝以下です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電話 0576-26-3202 / FAX 0576-26-2235</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -585,7 +582,7 @@
     <numFmt numFmtId="180" formatCode="0_ "/>
     <numFmt numFmtId="181" formatCode="#,##0.000_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,15 +642,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -689,6 +677,32 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1094,7 +1108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1119,57 +1133,12 @@
     <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1179,58 +1148,49 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1245,161 +1205,221 @@
     <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1427,13 +1447,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>144585</xdr:rowOff>
+      <xdr:rowOff>63988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>403556</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>154785</xdr:rowOff>
+      <xdr:colOff>7902</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>8246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1462,8 +1482,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5893594" y="144585"/>
-          <a:ext cx="1058400" cy="1047745"/>
+          <a:off x="5934808" y="63988"/>
+          <a:ext cx="1062979" cy="1057950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1777,134 +1797,139 @@
   </sheetPr>
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="8.625" style="2"/>
+    <col min="1" max="1" width="8.625" style="2"/>
+    <col min="2" max="2" width="8.625" style="2" customWidth="1"/>
+    <col min="3" max="9" width="8.625" style="2"/>
+    <col min="10" max="10" width="13.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="34"/>
-    </row>
-    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="79" t="s">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="77" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="35" t="s">
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="77" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="34"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="58"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="77" t="s">
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="32"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="34"/>
-    </row>
-    <row r="7" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="92" t="s">
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="92" t="s">
@@ -1913,8 +1938,8 @@
       <c r="B9" s="92"/>
       <c r="C9" s="92"/>
       <c r="D9" s="92"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="76" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="81" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="93">
@@ -1922,1001 +1947,1088 @@
         <v>110000</v>
       </c>
       <c r="H9" s="93"/>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="76"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="93"/>
       <c r="H10" s="93"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="83" t="s">
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="83" t="s">
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-    </row>
-    <row r="13" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="84" t="s">
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10">
+      <c r="C13" s="46"/>
+      <c r="D13" s="47">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="85"/>
-      <c r="B14" s="13" t="s">
+      <c r="H13" s="62"/>
+      <c r="I13" s="47"/>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="84"/>
+      <c r="B14" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15">
+      <c r="C14" s="49"/>
+      <c r="D14" s="50">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="85"/>
-      <c r="B15" s="87" t="s">
+      <c r="F14" s="84"/>
+      <c r="G14" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="63"/>
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="84"/>
+      <c r="B15" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="52">
         <f>10</f>
         <v>10</v>
       </c>
-      <c r="F15" s="85"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="85"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="32" t="s">
+      <c r="F15" s="84"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="64"/>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="84"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="71">
+      <c r="D16" s="54">
         <v>0</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="13" t="s">
+      <c r="F16" s="84"/>
+      <c r="G16" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="20">
+      <c r="H16" s="49"/>
+      <c r="I16" s="65">
         <f>SUM(I13:I14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="85"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="72"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="13" t="s">
+    <row r="17" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="84"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15">
+      <c r="H17" s="49"/>
+      <c r="I17" s="50">
         <f>+ROUND(I16*0.1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="85"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="71"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="21" t="s">
+    <row r="18" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="84"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="24">
+      <c r="H18" s="60"/>
+      <c r="I18" s="66">
         <f>SUM(I16:I17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="85"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="71"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
-    </row>
-    <row r="20" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="85"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="71"/>
+    <row r="19" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="84"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="84"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
       <c r="F20" s="90" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="91"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="59"/>
-    </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="85"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="19" t="s">
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="84"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="58">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="85"/>
-      <c r="B22" s="13" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="84"/>
+      <c r="B22" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15">
+      <c r="C22" s="49"/>
+      <c r="D22" s="50">
         <f>100000</f>
         <v>100000</v>
       </c>
-      <c r="F22" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="30" t="s">
+      <c r="F22" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="63"/>
-      <c r="I22" s="29"/>
-    </row>
-    <row r="23" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="85"/>
-      <c r="B23" s="13" t="s">
+      <c r="H22" s="70"/>
+      <c r="I22" s="71"/>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="84"/>
+      <c r="B23" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15">
+      <c r="C23" s="49"/>
+      <c r="D23" s="50">
         <f>+ROUND(D22*0.1,0)</f>
         <v>10000</v>
       </c>
-      <c r="F23" s="85"/>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="84"/>
+      <c r="G23" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="64"/>
-      <c r="I23" s="17">
+      <c r="H23" s="72"/>
+      <c r="I23" s="64">
         <f>+ROUND(I22*0.1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="86"/>
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="85"/>
+      <c r="B24" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23">
+      <c r="C24" s="60"/>
+      <c r="D24" s="61">
         <f>SUM(D22:D23)</f>
         <v>110000</v>
       </c>
-      <c r="F24" s="86"/>
-      <c r="G24" s="28" t="s">
+      <c r="F24" s="85"/>
+      <c r="G24" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="65"/>
-      <c r="I24" s="24">
+      <c r="H24" s="74"/>
+      <c r="I24" s="66">
         <f>SUM(I22:I23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="36"/>
+    <row r="25" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="4"/>
       <c r="H25" s="3"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
     </row>
     <row r="26" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="36"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="4"/>
       <c r="H26" s="3"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="36"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="95" t="s">
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="95"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="34"/>
-    </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="38" t="s">
+      <c r="F28" s="75"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A29" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="39" t="s">
+      <c r="H29" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="I29" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="39" t="s">
+      <c r="J29" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="36"/>
-    </row>
-    <row r="30" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="18"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="25"/>
-      <c r="G30" s="74"/>
-      <c r="J30" s="75"/>
-    </row>
-    <row r="31" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="18"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="25"/>
-      <c r="G31" s="74"/>
-      <c r="J31" s="75"/>
-    </row>
-    <row r="32" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="18"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="25"/>
-      <c r="G32" s="74"/>
-      <c r="J32" s="75"/>
-    </row>
-    <row r="33" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="18"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="25"/>
-      <c r="G33" s="74"/>
-      <c r="J33" s="75"/>
-    </row>
-    <row r="34" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="18"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="25"/>
-      <c r="G34" s="74"/>
-      <c r="J34" s="75"/>
-    </row>
-    <row r="35" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="18"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="25"/>
-      <c r="G35" s="74"/>
-      <c r="J35" s="75"/>
-    </row>
-    <row r="36" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="18"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="25"/>
-      <c r="G36" s="74"/>
-      <c r="J36" s="75"/>
-    </row>
-    <row r="37" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="18"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="25"/>
-      <c r="G37" s="74"/>
-      <c r="J37" s="75"/>
-    </row>
-    <row r="38" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="18"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="25"/>
-      <c r="G38" s="74"/>
-      <c r="J38" s="75"/>
-    </row>
-    <row r="39" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="18"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="25"/>
-      <c r="G39" s="74"/>
-      <c r="J39" s="75"/>
-    </row>
-    <row r="40" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="18"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="25"/>
-      <c r="G40" s="74"/>
-      <c r="J40" s="75"/>
-    </row>
-    <row r="41" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="18"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="25"/>
-      <c r="G41" s="74"/>
-      <c r="J41" s="75"/>
-    </row>
-    <row r="42" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="18"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="25"/>
-      <c r="G42" s="74"/>
-      <c r="J42" s="75"/>
-    </row>
-    <row r="43" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="18"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="25"/>
-      <c r="G43" s="74"/>
-      <c r="J43" s="75"/>
-    </row>
-    <row r="44" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="18"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="25"/>
-      <c r="G44" s="74"/>
-      <c r="J44" s="75"/>
-    </row>
-    <row r="45" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="18"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="25"/>
-      <c r="G45" s="74"/>
-      <c r="J45" s="75"/>
-    </row>
-    <row r="46" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="18"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="25"/>
-      <c r="G46" s="74"/>
-      <c r="J46" s="75"/>
-    </row>
-    <row r="47" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="18"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="25"/>
-      <c r="G47" s="74"/>
-      <c r="J47" s="75"/>
-    </row>
-    <row r="48" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="18"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="25"/>
-      <c r="G48" s="74"/>
-      <c r="J48" s="75"/>
-    </row>
-    <row r="49" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="18"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="25"/>
-      <c r="G49" s="74"/>
-      <c r="J49" s="75"/>
-    </row>
-    <row r="50" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="18"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="25"/>
-      <c r="G50" s="74"/>
-      <c r="J50" s="75"/>
-    </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="18"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="25"/>
-      <c r="G51" s="74"/>
-      <c r="J51" s="75"/>
-    </row>
-    <row r="52" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="18"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="25"/>
-      <c r="G52" s="74"/>
-      <c r="J52" s="75"/>
-    </row>
-    <row r="53" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="18"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="25"/>
-      <c r="G53" s="74"/>
-      <c r="J53" s="75"/>
-    </row>
-    <row r="54" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="18"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="25"/>
-      <c r="G54" s="74"/>
-      <c r="J54" s="75"/>
-    </row>
-    <row r="55" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="18"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="25"/>
-      <c r="G55" s="74"/>
-      <c r="J55" s="75"/>
-    </row>
-    <row r="56" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="18"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="25"/>
-      <c r="G56" s="74"/>
-      <c r="J56" s="75"/>
-    </row>
-    <row r="57" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="18"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="25"/>
-      <c r="G57" s="74"/>
-      <c r="J57" s="75"/>
-    </row>
-    <row r="58" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="18"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="25"/>
-      <c r="G58" s="74"/>
-      <c r="J58" s="75"/>
-    </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="18"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="25"/>
-      <c r="G59" s="74"/>
-      <c r="J59" s="75"/>
-    </row>
-    <row r="60" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="18"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="25"/>
-      <c r="G60" s="74"/>
-      <c r="J60" s="75"/>
-    </row>
-    <row r="61" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="41" t="s">
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="43"/>
+    </row>
+    <row r="31" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="43"/>
+    </row>
+    <row r="32" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="43"/>
+    </row>
+    <row r="33" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="43"/>
+    </row>
+    <row r="34" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="43"/>
+    </row>
+    <row r="35" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="43"/>
+    </row>
+    <row r="36" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="43"/>
+    </row>
+    <row r="37" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="43"/>
+    </row>
+    <row r="38" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="43"/>
+    </row>
+    <row r="39" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="43"/>
+    </row>
+    <row r="40" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="43"/>
+    </row>
+    <row r="41" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="43"/>
+    </row>
+    <row r="42" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="38"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="43"/>
+    </row>
+    <row r="43" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="38"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="43"/>
+    </row>
+    <row r="44" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="43"/>
+    </row>
+    <row r="45" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="38"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="43"/>
+    </row>
+    <row r="46" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="38"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="43"/>
+    </row>
+    <row r="47" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="38"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="43"/>
+    </row>
+    <row r="48" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="38"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="43"/>
+    </row>
+    <row r="49" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="38"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="43"/>
+    </row>
+    <row r="50" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="38"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="43"/>
+    </row>
+    <row r="51" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="38"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="43"/>
+    </row>
+    <row r="52" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="38"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="43"/>
+    </row>
+    <row r="53" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="38"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="43"/>
+    </row>
+    <row r="54" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="38"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="43"/>
+    </row>
+    <row r="55" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="38"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="43"/>
+    </row>
+    <row r="56" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="38"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="43"/>
+    </row>
+    <row r="57" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="38"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="43"/>
+    </row>
+    <row r="58" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="38"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="43"/>
+    </row>
+    <row r="59" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="38"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="43"/>
+    </row>
+    <row r="60" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="41"/>
-    </row>
-    <row r="62" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="41" t="s">
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="78"/>
+      <c r="K61" s="78"/>
+    </row>
+    <row r="62" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="99"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="I62" s="94"/>
+      <c r="J62" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="H62" s="98"/>
-      <c r="I62" s="98"/>
-      <c r="J62" s="98"/>
-      <c r="K62" s="98"/>
-    </row>
-    <row r="63" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="50"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="51" t="s">
+      <c r="K62" s="80"/>
+    </row>
+    <row r="63" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="27"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="102"/>
+      <c r="H63" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="I63" s="94"/>
+      <c r="J63" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="K63" s="80"/>
+    </row>
+    <row r="64" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="27"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="H63" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="I63" s="77"/>
-      <c r="J63" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="K63" s="100"/>
-    </row>
-    <row r="64" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="52"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="I64" s="77"/>
-      <c r="J64" s="99" t="s">
+      <c r="I64" s="94"/>
+      <c r="J64" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="K64" s="100"/>
-    </row>
-    <row r="65" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="52"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="96" t="s">
+      <c r="K64" s="80"/>
+    </row>
+    <row r="65" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="26"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I65" s="77"/>
-      <c r="J65" s="99" t="s">
+      <c r="I65" s="94"/>
+      <c r="J65" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="K65" s="100"/>
-    </row>
-    <row r="66" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="50"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="I66" s="77"/>
-      <c r="J66" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="K66" s="100"/>
-    </row>
-    <row r="67" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="18"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="25"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="94"/>
-      <c r="J67" s="94"/>
-    </row>
-    <row r="68" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="18"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="25"/>
-      <c r="G68" s="27"/>
-    </row>
-    <row r="69" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="18"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="25"/>
-      <c r="G69" s="27"/>
-    </row>
-    <row r="70" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="18"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="25"/>
-      <c r="G70" s="27"/>
-    </row>
-    <row r="71" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="18"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="25"/>
-      <c r="G71" s="27"/>
-    </row>
-    <row r="72" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="18"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="25"/>
-      <c r="G72" s="27"/>
-    </row>
-    <row r="73" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="18"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="25"/>
-      <c r="G73" s="27"/>
-    </row>
-    <row r="74" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="18"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="25"/>
-      <c r="G74" s="27"/>
-    </row>
-    <row r="75" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="18"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="25"/>
-      <c r="G75" s="27"/>
-    </row>
-    <row r="76" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="18"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="25"/>
-      <c r="G76" s="27"/>
-    </row>
-    <row r="77" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="18"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="25"/>
-      <c r="G77" s="27"/>
-    </row>
-    <row r="78" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="18"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="25"/>
-      <c r="G78" s="27"/>
-    </row>
-    <row r="79" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="18"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="25"/>
-      <c r="G79" s="27"/>
-    </row>
-    <row r="80" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="18"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="25"/>
-      <c r="G80" s="27"/>
-    </row>
-    <row r="81" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="18"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="25"/>
-      <c r="G81" s="27"/>
-    </row>
-    <row r="82" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="18"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="25"/>
-      <c r="G82" s="27"/>
-    </row>
-    <row r="83" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="18"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="25"/>
-      <c r="G83" s="27"/>
-    </row>
-    <row r="84" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="18"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="25"/>
-      <c r="G84" s="27"/>
-    </row>
-    <row r="85" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="18"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="25"/>
-      <c r="G85" s="27"/>
-    </row>
-    <row r="86" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="18"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="25"/>
-      <c r="G86" s="27"/>
-    </row>
-    <row r="87" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="18"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="25"/>
-      <c r="G87" s="27"/>
-    </row>
-    <row r="88" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="18"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="25"/>
-      <c r="G88" s="27"/>
-    </row>
-    <row r="89" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="18"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="25"/>
-      <c r="G89" s="27"/>
-    </row>
-    <row r="90" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="18"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="25"/>
-      <c r="G90" s="27"/>
-    </row>
-    <row r="91" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="18"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="25"/>
-      <c r="G91" s="27"/>
-    </row>
-    <row r="92" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="18"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="25"/>
-      <c r="G92" s="27"/>
-    </row>
-    <row r="93" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="18"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="25"/>
-      <c r="G93" s="27"/>
-    </row>
-    <row r="94" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="18"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="25"/>
-      <c r="G94" s="27"/>
-    </row>
-    <row r="95" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="18"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="25"/>
-      <c r="G95" s="27"/>
-    </row>
-    <row r="96" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="18"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="25"/>
-      <c r="G96" s="27"/>
-    </row>
-    <row r="97" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="18"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="25"/>
-    </row>
-    <row r="98" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="18"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="25"/>
-    </row>
-    <row r="99" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="18"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="25"/>
-    </row>
-    <row r="100" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="18"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="25"/>
-    </row>
-    <row r="101" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="18"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="25"/>
-    </row>
-    <row r="102" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="18"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="25"/>
-    </row>
-    <row r="103" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="18"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="25"/>
-    </row>
-    <row r="104" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="18"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="25"/>
-    </row>
-    <row r="105" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="18"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="25"/>
-    </row>
-    <row r="106" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="18"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="25"/>
-    </row>
-    <row r="107" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="18"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="25"/>
-    </row>
-    <row r="108" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="18"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="25"/>
-    </row>
-    <row r="109" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="18"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="25"/>
-    </row>
-    <row r="110" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="18"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="25"/>
-    </row>
-    <row r="111" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="18"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="25"/>
-    </row>
-    <row r="112" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="18"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="25"/>
-    </row>
-    <row r="113" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="18"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="25"/>
-    </row>
-    <row r="114" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="18"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="25"/>
-    </row>
-    <row r="115" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="18"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="25"/>
-    </row>
-    <row r="116" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="18"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="25"/>
-    </row>
-    <row r="117" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="18"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="25"/>
-    </row>
-    <row r="118" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="18"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="25"/>
-    </row>
-    <row r="119" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="18"/>
-      <c r="D119" s="26"/>
-      <c r="E119" s="25"/>
-    </row>
-    <row r="120" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="18"/>
-      <c r="E120" s="25"/>
-    </row>
-    <row r="121" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="18"/>
-      <c r="E121" s="25"/>
-    </row>
-    <row r="122" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="18"/>
-      <c r="E122" s="25"/>
-    </row>
-    <row r="123" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="18"/>
-      <c r="E123" s="25"/>
-    </row>
-    <row r="124" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="18"/>
-      <c r="E124" s="25"/>
-    </row>
-    <row r="125" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="18"/>
-      <c r="E125" s="25"/>
-    </row>
-    <row r="126" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="18"/>
-    </row>
-    <row r="127" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="K65" s="80"/>
+    </row>
+    <row r="66" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="100"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="100"/>
+    </row>
+    <row r="67" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="9"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="10"/>
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="9"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="10"/>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="9"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="10"/>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="9"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="10"/>
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="9"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="10"/>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="9"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="10"/>
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="9"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="10"/>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="9"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="10"/>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="9"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="10"/>
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="9"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="10"/>
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="9"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="10"/>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="9"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="10"/>
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="9"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="10"/>
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="9"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="10"/>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="9"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="10"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="9"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="10"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="9"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="10"/>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="9"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="10"/>
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="9"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="10"/>
+    </row>
+    <row r="98" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="9"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="10"/>
+    </row>
+    <row r="99" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="9"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="10"/>
+    </row>
+    <row r="100" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="9"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="10"/>
+    </row>
+    <row r="101" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="9"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="10"/>
+    </row>
+    <row r="102" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="9"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="10"/>
+    </row>
+    <row r="103" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="9"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="9"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="10"/>
+    </row>
+    <row r="105" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="9"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="10"/>
+    </row>
+    <row r="106" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="9"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="10"/>
+    </row>
+    <row r="107" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="9"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="10"/>
+    </row>
+    <row r="108" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="9"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="10"/>
+    </row>
+    <row r="109" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="9"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="10"/>
+    </row>
+    <row r="110" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="9"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="10"/>
+    </row>
+    <row r="111" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="9"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="10"/>
+    </row>
+    <row r="112" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="9"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="10"/>
+    </row>
+    <row r="113" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="9"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="10"/>
+    </row>
+    <row r="114" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="9"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="10"/>
+    </row>
+    <row r="115" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="9"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="10"/>
+    </row>
+    <row r="116" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="9"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="9"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="10"/>
+    </row>
+    <row r="118" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="9"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="10"/>
+    </row>
+    <row r="119" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="9"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="10"/>
+    </row>
+    <row r="120" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="9"/>
+      <c r="E120" s="10"/>
+    </row>
+    <row r="121" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="9"/>
+      <c r="E121" s="10"/>
+    </row>
+    <row r="122" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="9"/>
+      <c r="E122" s="10"/>
+    </row>
+    <row r="123" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="9"/>
+      <c r="E123" s="10"/>
+    </row>
+    <row r="124" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="9"/>
+      <c r="E124" s="10"/>
+    </row>
+    <row r="125" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="9"/>
+      <c r="E125" s="10"/>
+    </row>
+    <row r="126" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="9"/>
+    </row>
+    <row r="127" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="F13:F18"/>
     <mergeCell ref="B15:B21"/>
@@ -2930,18 +3042,21 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="1.1023622047244095" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/南ひだ/買上材明細書印刷用_南飛騨.xlsx
+++ b/南ひだ/買上材明細書印刷用_南飛騨.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GifuForest_南ひだ\ExcelM_開発中\下呂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290E9A75-19BD-4FE0-B496-0F391595B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D8CE14-B993-493E-821E-DD450FC12F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="720" windowWidth="19590" windowHeight="10800" xr2:uid="{7A59FB25-FC69-4496-9E90-84EF8FFD24FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7A59FB25-FC69-4496-9E90-84EF8FFD24FF}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>計</t>
     <rPh sb="0" eb="1">
@@ -214,20 +214,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>消費税 10％</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>精算額</t>
-    <rPh sb="0" eb="3">
-      <t>セイサンガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>【諸経費額】</t>
     <rPh sb="1" eb="5">
       <t>ショケイヒガク</t>
@@ -451,25 +437,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>益田信用組合 竹原支店</t>
-    <rPh sb="0" eb="2">
-      <t>マスダ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シンヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>クミアイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タケハラ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シテン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>関信用金庫　金山支店</t>
     <rPh sb="0" eb="1">
       <t>セキ</t>
@@ -489,50 +456,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>飛 騨 農 協  竹原支店</t>
-    <rPh sb="0" eb="1">
-      <t>トビ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ノウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タケハラ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve">十 六 銀 行    下呂支店 </t>
-    <rPh sb="0" eb="1">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ロク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ギン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゲロ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シテン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>御買上材明細書兼請求書　</t>
     <rPh sb="0" eb="3">
       <t>オカイアゲ</t>
@@ -568,6 +491,155 @@
   <si>
     <t>電話 0576-26-3202 / FAX 0576-26-2235</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【請求額の計算】</t>
+    <rPh sb="1" eb="4">
+      <t>セイキュウガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>諸費用1計</t>
+    <rPh sb="0" eb="3">
+      <t>ショヒヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>諸費用2計</t>
+    <rPh sb="0" eb="3">
+      <t>ショヒヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>消費税10％</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求額</t>
+    <rPh sb="0" eb="3">
+      <t>セイキュウガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(A)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(B)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(C)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(E)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(A)+(B)+(C)=(D)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(D)+(E)=(F)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(G)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(F)+(G)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求額</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>益田信用組合   竹原支店</t>
+    <rPh sb="0" eb="2">
+      <t>マスダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クミアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タケハラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>飛 騨 農 協    竹原支店</t>
+    <rPh sb="0" eb="1">
+      <t>トビ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タケハラ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve">十 六 銀 行        下呂支店 </t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲロ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -582,7 +654,7 @@
     <numFmt numFmtId="180" formatCode="0_ "/>
     <numFmt numFmtId="181" formatCode="#,##0.000_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,13 +735,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -712,7 +777,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -751,19 +816,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -931,17 +983,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1047,32 +1088,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1096,6 +1111,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1108,7 +1312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,7 +1355,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1163,9 +1367,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1187,239 +1388,281 @@
     <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1490,6 +1733,126 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>201613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>107821</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="二等辺三角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B678FB5-0912-4543-999F-79C520F41A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7020654" y="4410934"/>
+          <a:ext cx="103187" cy="79246"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104646</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="二等辺三角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D673DC6-4288-460A-84AC-DEAD696738C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7018273" y="8291577"/>
+          <a:ext cx="101600" cy="79246"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1792,9 +2155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762E4827-AB41-46E2-AEE7-66333653060A}">
-  <sheetPr codeName="Sheet1">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1807,37 +2168,37 @@
     <col min="2" max="2" width="8.625" style="2" customWidth="1"/>
     <col min="3" max="9" width="8.625" style="2"/>
     <col min="10" max="10" width="13.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="1.625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
+      <c r="A1" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
       <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="97"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
@@ -1849,73 +2210,73 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="32"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
+      <c r="H6" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
+      <c r="A7" s="115"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="H7" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -1932,22 +2293,22 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="93">
-        <f>D24+I18+I24+I20</f>
+      <c r="F9" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="108">
+        <f>J22</f>
         <v>110000</v>
       </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="81" t="s">
+      <c r="H9" s="108"/>
+      <c r="I9" s="107" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="13"/>
@@ -1959,10 +2320,10 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="81"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="107"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
@@ -1980,224 +2341,274 @@
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
+      <c r="A12" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
+      <c r="F12" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47">
+      <c r="A13" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="F13" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="47"/>
+      <c r="F13" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="51"/>
+      <c r="I13" s="41"/>
     </row>
     <row r="14" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="84"/>
-      <c r="B14" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50">
+      <c r="A14" s="87"/>
+      <c r="B14" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="50"/>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="84"/>
-      <c r="B15" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="51" t="s">
+      <c r="F14" s="87"/>
+      <c r="G14" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="52"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="87"/>
+      <c r="B15" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="46">
         <f>10</f>
         <v>10</v>
       </c>
-      <c r="F15" s="84"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="64"/>
-    </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="84"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="54">
+      <c r="F15" s="87"/>
+      <c r="G15" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="84"/>
-      <c r="G16" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="65">
+      <c r="H15" s="43"/>
+      <c r="I15" s="53">
         <f>SUM(I13:I14)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="84"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50">
-        <f>+ROUND(I16*0.1,0)</f>
+      <c r="J15" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="87"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="48">
         <v>0</v>
       </c>
+      <c r="F16" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="87"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="50">
+        <v>10</v>
+      </c>
+      <c r="F17" s="88"/>
+      <c r="G17" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="64"/>
+      <c r="I17" s="65">
+        <f>SUM(I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="84"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="59" t="s">
+      <c r="A18" s="88"/>
+      <c r="B18" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="68">
+        <f>100000</f>
+        <v>100000</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="66">
-        <f>SUM(I16:I17)</f>
+      <c r="G18" s="90"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="79">
+        <f>SUM(I15,I17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="84"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
+    <row r="19" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="67"/>
       <c r="F19" s="15"/>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="84"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="F20" s="90" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="68"/>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="84"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="58">
+    <row r="20" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="109"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="67"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="92"/>
+      <c r="F21" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="84"/>
-      <c r="B22" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50">
-        <f>100000</f>
+      <c r="H21" s="92"/>
+      <c r="I21" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="74">
+        <f>D18</f>
         <v>100000</v>
       </c>
-      <c r="F22" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="71"/>
-    </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="84"/>
-      <c r="B23" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50">
-        <f>+ROUND(D22*0.1,0)</f>
+      <c r="B22" s="75">
+        <f>I15</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="76">
+        <f>I17</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="95">
+        <f>SUM(A22:C22)</f>
+        <v>100000</v>
+      </c>
+      <c r="E22" s="96"/>
+      <c r="F22" s="76">
+        <f>+ROUND(D22*0.1, 0)</f>
         <v>10000</v>
       </c>
-      <c r="F23" s="84"/>
-      <c r="G23" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="72"/>
-      <c r="I23" s="64">
-        <f>+ROUND(I22*0.1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="85"/>
-      <c r="B24" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="61">
-        <f>SUM(D22:D23)</f>
+      <c r="G22" s="95">
+        <f>SUM(D22:F22)</f>
         <v>110000</v>
       </c>
-      <c r="F24" s="85"/>
-      <c r="G24" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="74"/>
-      <c r="I24" s="66">
-        <f>SUM(I22:I23)</f>
-        <v>0</v>
-      </c>
+      <c r="H22" s="96"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78">
+        <f>SUM(G22:I22)</f>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="94"/>
+      <c r="F23" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="99"/>
+      <c r="I23" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="33" t="s">
-        <v>52</v>
+      <c r="A25" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="13"/>
@@ -2237,539 +2648,440 @@
       <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="44"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="83"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="38"/>
       <c r="K28" s="13"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="30" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="43"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="37"/>
     </row>
     <row r="31" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="43"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="37"/>
     </row>
     <row r="32" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="43"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="43"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="37"/>
     </row>
     <row r="34" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="43"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="37"/>
     </row>
     <row r="35" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="43"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="43"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="43"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="37"/>
     </row>
     <row r="38" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="38"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="43"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="43"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="43"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="37"/>
     </row>
     <row r="41" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="43"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="37"/>
     </row>
     <row r="42" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="38"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="43"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="37"/>
     </row>
     <row r="43" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="38"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="43"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="37"/>
     </row>
     <row r="44" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="38"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="43"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="38"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="43"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="37"/>
     </row>
     <row r="46" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="38"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="43"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="37"/>
     </row>
     <row r="47" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="43"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="37"/>
     </row>
     <row r="48" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="38"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="43"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="37"/>
     </row>
     <row r="49" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="38"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="43"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="37"/>
     </row>
     <row r="50" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="38"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="43"/>
-    </row>
-    <row r="51" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="38"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="43"/>
-    </row>
-    <row r="52" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="38"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="43"/>
-    </row>
-    <row r="53" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="38"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="43"/>
-    </row>
-    <row r="54" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="38"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="43"/>
-    </row>
-    <row r="55" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="38"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="43"/>
-    </row>
-    <row r="56" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="38"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="43"/>
-    </row>
-    <row r="57" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="38"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="43"/>
-    </row>
-    <row r="58" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="38"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="43"/>
-    </row>
-    <row r="59" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="38"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="43"/>
-    </row>
-    <row r="60" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="17" t="s">
+      <c r="A50" s="32"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="37"/>
+    </row>
+    <row r="51" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="1:11" s="8" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="81"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="1:11" s="8" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="102"/>
+    </row>
+    <row r="54" spans="1:11" s="8" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="82"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" s="85"/>
+      <c r="J54" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="17"/>
-    </row>
-    <row r="61" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="17" t="s">
+      <c r="K54" s="103"/>
+    </row>
+    <row r="55" spans="1:11" s="8" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="25"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="85"/>
+      <c r="J55" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="77" t="s">
+      <c r="K55" s="104"/>
+    </row>
+    <row r="56" spans="1:11" s="8" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="25"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" s="85"/>
+      <c r="J56" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="K56" s="104"/>
+    </row>
+    <row r="57" spans="1:11" s="8" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="25"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-    </row>
-    <row r="62" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="99"/>
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="H62" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="I62" s="94"/>
-      <c r="J62" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="K62" s="80"/>
-    </row>
-    <row r="63" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="27"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="102"/>
-      <c r="H63" s="103" t="s">
-        <v>48</v>
-      </c>
-      <c r="I63" s="94"/>
-      <c r="J63" s="79" t="s">
+      <c r="I57" s="85"/>
+      <c r="J57" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="K63" s="80"/>
-    </row>
-    <row r="64" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="27"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="I64" s="94"/>
-      <c r="J64" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="K64" s="80"/>
-    </row>
-    <row r="65" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="26"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="103" t="s">
-        <v>47</v>
-      </c>
-      <c r="I65" s="94"/>
-      <c r="J65" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="K65" s="80"/>
-    </row>
-    <row r="66" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="100"/>
-      <c r="B66" s="100"/>
-      <c r="C66" s="100"/>
-      <c r="D66" s="100"/>
-    </row>
-    <row r="67" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K57" s="104"/>
+    </row>
+    <row r="58" spans="1:11" s="8" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="110"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
+    </row>
+    <row r="59" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" spans="1:7" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="9"/>
       <c r="D79" s="11"/>
       <c r="E79" s="10"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="9"/>
       <c r="D80" s="11"/>
       <c r="E80" s="10"/>
@@ -3019,8 +3331,9 @@
     <row r="130" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="131" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A66:D66"/>
+  <mergeCells count="42">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A58:D58"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H4:J4"/>
@@ -3030,33 +3343,41 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A6:D7"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="B15:B21"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="A13:A24"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="H7:J7"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A13:A18"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.1023622047244095" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/南ひだ/買上材明細書印刷用_南飛騨.xlsx
+++ b/南ひだ/買上材明細書印刷用_南飛騨.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GifuForest_南ひだ\ExcelM_開発中\下呂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D8CE14-B993-493E-821E-DD450FC12F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB497B5E-AE96-41A6-B0E6-B296F4622A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7A59FB25-FC69-4496-9E90-84EF8FFD24FF}"/>
+    <workbookView xWindow="375" yWindow="780" windowWidth="20115" windowHeight="10575" xr2:uid="{7A59FB25-FC69-4496-9E90-84EF8FFD24FF}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -1562,22 +1562,70 @@
     <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1614,54 +1662,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2159,7 +2159,7 @@
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2173,32 +2173,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
       <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
@@ -2210,73 +2210,73 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="105" t="s">
+      <c r="H4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="26"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="105" t="s">
+      <c r="H5" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="105" t="s">
+      <c r="H7" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -2293,22 +2293,22 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="107" t="s">
+      <c r="F9" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="108">
+      <c r="G9" s="94">
         <f>J22</f>
         <v>110000</v>
       </c>
-      <c r="H9" s="108"/>
-      <c r="I9" s="107" t="s">
+      <c r="H9" s="94"/>
+      <c r="I9" s="90" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="13"/>
@@ -2320,10 +2320,10 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="107"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
@@ -2341,24 +2341,24 @@
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="116" t="s">
+      <c r="F12" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="95" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="39" t="s">
@@ -2369,7 +2369,7 @@
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="95" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="39" t="s">
@@ -2379,7 +2379,7 @@
       <c r="I13" s="41"/>
     </row>
     <row r="14" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="87"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="42" t="s">
         <v>31</v>
       </c>
@@ -2388,7 +2388,7 @@
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="F14" s="87"/>
+      <c r="F14" s="96"/>
       <c r="G14" s="42" t="s">
         <v>35</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="87"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="58" t="s">
         <v>32</v>
       </c>
@@ -2407,7 +2407,7 @@
         <f>10</f>
         <v>10</v>
       </c>
-      <c r="F15" s="87"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="42" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +2421,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="87"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="61"/>
       <c r="C16" s="47" t="s">
         <v>8</v>
@@ -2429,7 +2429,7 @@
       <c r="D16" s="48">
         <v>0</v>
       </c>
-      <c r="F16" s="86" t="s">
+      <c r="F16" s="95" t="s">
         <v>46</v>
       </c>
       <c r="G16" s="54" t="s">
@@ -2439,7 +2439,7 @@
       <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="87"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="62"/>
       <c r="C17" s="49" t="s">
         <v>9</v>
@@ -2447,7 +2447,7 @@
       <c r="D17" s="50">
         <v>10</v>
       </c>
-      <c r="F17" s="88"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="63" t="s">
         <v>0</v>
       </c>
@@ -2461,7 +2461,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="88"/>
+      <c r="A18" s="97"/>
       <c r="B18" s="63" t="s">
         <v>33</v>
       </c>
@@ -2473,10 +2473,10 @@
       <c r="E18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="89" t="s">
+      <c r="F18" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="90"/>
+      <c r="G18" s="106"/>
       <c r="H18" s="66"/>
       <c r="I18" s="79">
         <f>SUM(I15,I17)</f>
@@ -2494,14 +2494,14 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="109" t="s">
+      <c r="A20" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="109"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="15"/>
       <c r="D20" s="67"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
@@ -2515,17 +2515,17 @@
       <c r="C21" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="92"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="91" t="s">
+      <c r="G21" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="92"/>
+      <c r="H21" s="108"/>
       <c r="I21" s="70" t="s">
         <v>25</v>
       </c>
@@ -2546,20 +2546,20 @@
         <f>I17</f>
         <v>0</v>
       </c>
-      <c r="D22" s="95">
+      <c r="D22" s="111">
         <f>SUM(A22:C22)</f>
         <v>100000</v>
       </c>
-      <c r="E22" s="96"/>
+      <c r="E22" s="112"/>
       <c r="F22" s="76">
         <f>+ROUND(D22*0.1, 0)</f>
         <v>10000</v>
       </c>
-      <c r="G22" s="95">
+      <c r="G22" s="111">
         <f>SUM(D22:F22)</f>
         <v>110000</v>
       </c>
-      <c r="H22" s="96"/>
+      <c r="H22" s="112"/>
       <c r="I22" s="77"/>
       <c r="J22" s="78">
         <f>SUM(G22:I22)</f>
@@ -2576,17 +2576,17 @@
       <c r="C23" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="93" t="s">
+      <c r="D23" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="94"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="98" t="s">
+      <c r="G23" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="99"/>
+      <c r="H23" s="115"/>
       <c r="I23" s="69" t="s">
         <v>60</v>
       </c>
@@ -2598,11 +2598,11 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
       <c r="I24" s="5"/>
       <c r="J24" s="3"/>
     </row>
@@ -2652,10 +2652,10 @@
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="83" t="s">
+      <c r="E28" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="83"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
@@ -2947,7 +2947,18 @@
       <c r="I50" s="33"/>
       <c r="J50" s="37"/>
     </row>
-    <row r="51" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="32"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="37"/>
+    </row>
     <row r="52" spans="1:11" s="8" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="17" t="s">
         <v>36</v>
@@ -2971,13 +2982,13 @@
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
       <c r="F53" s="24"/>
-      <c r="G53" s="101" t="s">
+      <c r="G53" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="H53" s="102"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
-      <c r="K53" s="102"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="101"/>
+      <c r="K53" s="101"/>
     </row>
     <row r="54" spans="1:11" s="8" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="82"/>
@@ -2989,14 +3000,14 @@
       <c r="G54" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="H54" s="84" t="s">
+      <c r="H54" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="I54" s="85"/>
-      <c r="J54" s="103" t="s">
+      <c r="I54" s="98"/>
+      <c r="J54" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="K54" s="103"/>
+      <c r="K54" s="102"/>
     </row>
     <row r="55" spans="1:11" s="8" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -3006,14 +3017,14 @@
       <c r="E55" s="23"/>
       <c r="F55" s="24"/>
       <c r="G55" s="60"/>
-      <c r="H55" s="84" t="s">
+      <c r="H55" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="I55" s="85"/>
-      <c r="J55" s="103" t="s">
+      <c r="I55" s="98"/>
+      <c r="J55" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="K55" s="104"/>
+      <c r="K55" s="103"/>
     </row>
     <row r="56" spans="1:11" s="8" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
@@ -3023,14 +3034,14 @@
       <c r="E56" s="23"/>
       <c r="F56" s="24"/>
       <c r="G56" s="60"/>
-      <c r="H56" s="84" t="s">
+      <c r="H56" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="I56" s="85"/>
-      <c r="J56" s="103" t="s">
+      <c r="I56" s="98"/>
+      <c r="J56" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="K56" s="104"/>
+      <c r="K56" s="103"/>
     </row>
     <row r="57" spans="1:11" s="8" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
@@ -3040,20 +3051,20 @@
       <c r="E57" s="23"/>
       <c r="F57" s="24"/>
       <c r="G57" s="60"/>
-      <c r="H57" s="84" t="s">
+      <c r="H57" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="I57" s="85"/>
-      <c r="J57" s="103" t="s">
+      <c r="I57" s="98"/>
+      <c r="J57" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="K57" s="104"/>
+      <c r="K57" s="103"/>
     </row>
     <row r="58" spans="1:11" s="8" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="110"/>
-      <c r="B58" s="110"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="110"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
     </row>
     <row r="59" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="60" spans="1:11" s="8" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3332,6 +3343,32 @@
     <row r="131" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="F13:F15"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A1:J1"/>
@@ -3348,32 +3385,6 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.1023622047244095" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
